--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>201686</v>
+        <v>201688</v>
       </c>
       <c r="D122" t="n">
-        <v>294191071</v>
+        <v>294195230</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>806348</v>
+        <v>806347</v>
       </c>
       <c r="D142" t="n">
-        <v>1288773274</v>
+        <v>1288770553</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>329077</v>
+        <v>329076</v>
       </c>
       <c r="D210" t="n">
-        <v>474707467</v>
+        <v>474706029</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>50312</v>
+        <v>50313</v>
       </c>
       <c r="D222" t="n">
-        <v>115084708</v>
+        <v>115088924</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
